--- a/Excel/HeroQualityTypeConfig.xlsx
+++ b/Excel/HeroQualityTypeConfig.xlsx
@@ -8,19 +8,29 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\workspace\ET-EUI\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{331F98E2-13BE-4615-8902-96E9A7D5030B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3F542DB8-5C8E-430F-875A-5B85DDDF9324}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="SkillConfig" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
   <si>
     <t>Id</t>
   </si>
@@ -65,6 +75,10 @@
   </si>
   <si>
     <t>#英雄品质类型</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>品质框</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -454,7 +468,7 @@
   <dimension ref="A2:N33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13" x14ac:dyDescent="0.35"/>
@@ -479,7 +493,9 @@
       <c r="D3" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="E3" s="4"/>
+      <c r="E3" s="4" t="s">
+        <v>12</v>
+      </c>
       <c r="F3" s="4"/>
       <c r="G3" s="4"/>
       <c r="H3" s="4"/>

--- a/Excel/HeroQualityTypeConfig.xlsx
+++ b/Excel/HeroQualityTypeConfig.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\workspace\ET-EUI\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3F542DB8-5C8E-430F-875A-5B85DDDF9324}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{63177E01-3091-434F-9734-080BFCB2E78A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="18">
   <si>
     <t>Id</t>
   </si>
@@ -78,7 +78,26 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>品质框</t>
+    <t>品质图标</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Icon</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>item_A</t>
+  </si>
+  <si>
+    <t>item_B</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>item_C</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>item_D</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -86,7 +105,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -111,6 +130,14 @@
     </font>
     <font>
       <sz val="9"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <family val="3"/>
       <charset val="134"/>
@@ -143,7 +170,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -161,6 +188,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -468,7 +496,7 @@
   <dimension ref="A2:N33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13" x14ac:dyDescent="0.35"/>
@@ -511,7 +539,9 @@
       <c r="D4" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="E4" s="4"/>
+      <c r="E4" s="4" t="s">
+        <v>13</v>
+      </c>
       <c r="F4" s="4"/>
       <c r="G4" s="4"/>
       <c r="H4" s="4"/>
@@ -527,7 +557,9 @@
       <c r="D5" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="E5" s="4"/>
+      <c r="E5" s="4" t="s">
+        <v>3</v>
+      </c>
       <c r="F5" s="4"/>
       <c r="G5" s="4"/>
       <c r="H5" s="4"/>
@@ -546,7 +578,9 @@
       <c r="D6" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="E6"/>
+      <c r="E6" t="s">
+        <v>14</v>
+      </c>
       <c r="F6"/>
       <c r="G6"/>
       <c r="H6"/>
@@ -562,6 +596,9 @@
       <c r="D7" s="6" t="s">
         <v>8</v>
       </c>
+      <c r="E7" s="7" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="8" spans="1:14" s="1" customFormat="1" ht="14" x14ac:dyDescent="0.25">
       <c r="C8">
@@ -570,7 +607,9 @@
       <c r="D8" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="E8"/>
+      <c r="E8" s="7" t="s">
+        <v>16</v>
+      </c>
       <c r="F8"/>
       <c r="G8"/>
       <c r="H8"/>
@@ -586,7 +625,9 @@
       <c r="D9" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="E9"/>
+      <c r="E9" s="7" t="s">
+        <v>17</v>
+      </c>
       <c r="F9"/>
       <c r="G9"/>
       <c r="H9"/>
